--- a/Pratica-III/CheckList Projetos.xlsx
+++ b/Pratica-III/CheckList Projetos.xlsx
@@ -138,18 +138,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -191,16 +185,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -510,7 +503,7 @@
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -521,10 +514,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
@@ -532,28 +525,28 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="5"/>
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="5"/>
+      <c r="B4" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
@@ -561,8 +554,8 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5" t="s">
+      <c r="A6" s="5"/>
+      <c r="B6" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C6" t="s">
@@ -570,7 +563,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4"/>
+      <c r="A7" s="5"/>
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -579,8 +572,8 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="5"/>
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
@@ -588,8 +581,8 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5" t="s">
+      <c r="A9" s="5"/>
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
@@ -597,8 +590,8 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5" t="s">
+      <c r="A10" s="5"/>
+      <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
@@ -606,8 +599,8 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="C11" t="s">
@@ -615,8 +608,8 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="5"/>
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" t="s">
@@ -624,7 +617,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="5"/>
       <c r="B13" s="3" t="s">
         <v>16</v>
       </c>
@@ -633,40 +626,40 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="5"/>
+      <c r="B15" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="5"/>
+      <c r="B16" s="3" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5" t="s">
+      <c r="A17" s="5"/>
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="5"/>
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="5"/>
+      <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
     </row>
